--- a/test4.xlsx
+++ b/test4.xlsx
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02327510382720296</v>
+        <v>0.1583577311662352</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003893982023730674</v>
+        <v>0.1673024555611027</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0006774206436164215</v>
+        <v>0.1739660428548694</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000121059060980435</v>
+        <v>0.1787058928912457</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.202693611963287e-05</v>
+        <v>0.1819519822906339</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.05538857708546e-06</v>
+        <v>0.184110425301994</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.523339015979439e-07</v>
+        <v>0.1855146275868424</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.402456726547845e-07</v>
+        <v>0.1864141338797909</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.622374055946998e-08</v>
+        <v>0.1869843116230749</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.912840465272329e-09</v>
+        <v>0.1873432378623114</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.2149253301511e-10</v>
+        <v>0.1875681776212592</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.729722154009089e-10</v>
+        <v>0.1877087542260883</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.248356927630667e-11</v>
+        <v>0.1877964573733268</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.102074802069444e-12</v>
+        <v>0.1878511179040987</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.146489331030461e-12</v>
+        <v>0.1878851650002132</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.154326437163204e-13</v>
+        <v>0.1879063658819138</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.048400885965332e-14</v>
+        <v>0.1879195657690682</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.608040476801547e-15</v>
+        <v>0.1879270529550689</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.429792050882131e-15</v>
+        <v>0.1879317092544205</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.687074249463336e-16</v>
+        <v>0.1879346194298329</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.050074051033387e-17</v>
+        <v>0.1879395052831901</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.491017433600679e-18</v>
+        <v>0.187938183434331</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.783716978764664e-18</v>
+        <v>0.1879373830301734</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.352262083001302e-19</v>
+        <v>0.1879368825273477</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.300126323531913e-20</v>
+        <v>0.1879365684287837</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.184022872926478e-20</v>
+        <v>0.1879363701810194</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.225208153957511e-21</v>
+        <v>0.1879362472498186</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.181971056330541e-22</v>
+        <v>0.1879361734718141</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.859434922700097e-23</v>
+        <v>0.1879361386493272</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.477071851321893e-23</v>
+        <v>0.1879361386472867</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.775951802401925e-24</v>
+        <v>0.1879361386460389</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.217016628101126e-25</v>
+        <v>0.1879361386457445</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.804659603431892e-26</v>
+        <v>0.1879361386471287</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.842649866618982e-26</v>
+        <v>0.1879361386471801</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.463005008114312e-27</v>
+        <v>0.1879361386473529</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.508237893430783e-28</v>
+        <v>0.1879361386478235</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.223133099093705e-28</v>
+        <v>0.1879361386479585</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.298709116936699e-29</v>
+        <v>0.1879361386459049</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.320105153052004e-30</v>
+        <v>0.1879361386450258</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.119038810071582e-31</v>
+        <v>0.1879361386455087</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.525860803476307e-31</v>
+        <v>0.1879361386453151</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.867643875151565e-32</v>
+        <v>0.1879361386450407</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.389339169105297e-33</v>
+        <v>0.1879361386469389</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.012851593296728e-33</v>
+        <v>0.1879361386462665</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.903514174661342e-34</v>
+        <v>0.187936138646492</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.577391038436552e-35</v>
+        <v>0.1879361386459344</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.723210581922679e-36</v>
+        <v>0.1879361386464747</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.263534236066517e-36</v>
+        <v>0.1879361386454114</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.374637453735754e-37</v>
+        <v>0.1879361386461667</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.462801937358575e-38</v>
+        <v>0.1879361386445642</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8.387217636524689e-39</v>
+        <v>0.1879361386467642</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.576261296586359e-39</v>
+        <v>0.1879361386453178</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.962364615779554e-40</v>
+        <v>0.1879361386462396</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.567353671522383e-41</v>
+        <v>0.1879361386463671</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.04630695150729e-41</v>
+        <v>0.1879361386468518</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.966388883028847e-42</v>
+        <v>0.1879361386442195</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.695555337536835e-43</v>
+        <v>0.1879361386464176</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.945284002887964e-44</v>
+        <v>0.187936138645867</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.305269857302448e-44</v>
+        <v>0.1879361386459783</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.453073768720144e-45</v>
+        <v>0.1879361386456759</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.610212119071312e-46</v>
+        <v>0.1879361386460312</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.664254639934489e-47</v>
+        <v>0.1879361386451743</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.628326561282102e-47</v>
+        <v>0.1879361386468223</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.060214063840783e-48</v>
+        <v>0.1879361386472287</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.751248145963193e-49</v>
+        <v>0.1879361386485812</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.080867368952481e-49</v>
+        <v>0.1879361386469028</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.031340397117268e-50</v>
+        <v>0.1879361386481612</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.817622705125318e-51</v>
+        <v>0.1879361386473195</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.174692700166888e-52</v>
+        <v>0.1879361386481321</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.3483840420519e-52</v>
+        <v>0.187936138647518</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.534100902744859e-53</v>
+        <v>0.1879361386455299</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.762491386016733e-54</v>
+        <v>0.1879361386461822</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.950442414246421e-55</v>
+        <v>0.1879361386463823</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.682111586501669e-55</v>
+        <v>0.1879361386454207</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.161295563406558e-56</v>
+        <v>0.1879361386470909</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.941216813094849e-57</v>
+        <v>0.187936138647305</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.116569346722115e-57</v>
+        <v>0.1879361386477463</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.098437315547837e-58</v>
+        <v>0.1879361386472025</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.943722062785514e-59</v>
+        <v>0.1879361386478171</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.411678963835098e-60</v>
+        <v>0.1879361386486783</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.392922325360458e-60</v>
+        <v>0.1879361386478219</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.61780443261052e-61</v>
+        <v>0.1879361386452823</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.91980056791437e-62</v>
+        <v>0.187936138644561</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.246083216408478e-63</v>
+        <v>0.1879361386457201</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.737673177279726e-63</v>
+        <v>0.1879361386447376</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.265715871641698e-64</v>
+        <v>0.1879361386445566</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.137460308321326e-65</v>
+        <v>0.1879361386462559</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.153450591453536e-65</v>
+        <v>0.1879361386483686</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.167750502796532e-66</v>
+        <v>0.1879361386485408</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.073986590492773e-67</v>
+        <v>0.1879361386486627</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.656493087192692e-68</v>
+        <v>0.1879361386475892</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.438931746395687e-68</v>
+        <v>0.1879361386484686</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.704272761951994e-69</v>
+        <v>0.1879361386477017</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.082305807285837e-70</v>
+        <v>0.1879361386466554</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.551489288423609e-71</v>
+        <v>0.1879361386465743</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.795070015180583e-71</v>
+        <v>0.1879361386455414</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.373585272487576e-72</v>
+        <v>0.1879361386440514</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.340185895026482e-73</v>
+        <v>0.1879361386455019</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.19155005540281e-73</v>
+        <v>0.1879361386450062</v>
       </c>
     </row>
   </sheetData>

--- a/test4.xlsx
+++ b/test4.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1469780076778824</v>
+        <v>0.861297801449578</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1583577311662352</v>
+        <v>0.8612978015269552</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1673024555611027</v>
+        <v>0.8612978016264928</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1739660428548694</v>
+        <v>0.8612978016128916</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1787058928912457</v>
+        <v>0.8612978015166349</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1819519822906339</v>
+        <v>0.861297801890583</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.184110425301994</v>
+        <v>0.8612978022564726</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1855146275868424</v>
+        <v>0.8612978022645857</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1864141338797909</v>
+        <v>0.8612978022084714</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1869843116230749</v>
+        <v>0.8612978021839477</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1873432378623114</v>
+        <v>0.8612978024351874</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1875681776212592</v>
+        <v>0.8612978025363607</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1877087542260883</v>
+        <v>0.8612978025036273</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1877964573733268</v>
+        <v>0.8612978024077674</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1878511179040987</v>
+        <v>0.8612978025926832</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1878851650002132</v>
+        <v>0.8612978027660493</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1879063658819138</v>
+        <v>0.861297803009172</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1879195657690682</v>
+        <v>0.8612978030834907</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1879270529550689</v>
+        <v>0.8612978031319708</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1879317092544205</v>
+        <v>0.8612978031807593</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1879346194298329</v>
+        <v>0.8612978031550145</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1879395052831901</v>
+        <v>0.8612978029303561</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.187938183434331</v>
+        <v>0.8612978031471736</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1879373830301734</v>
+        <v>0.8612978031558552</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1879368825273477</v>
+        <v>0.8612978029289805</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1879365684287837</v>
+        <v>0.8612978034686628</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1879363701810194</v>
+        <v>0.8612978035656379</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1879362472498186</v>
+        <v>0.8612978032756256</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1879361734718141</v>
+        <v>0.8612978035580843</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1879361386493272</v>
+        <v>0.8612978038815146</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1879361386472867</v>
+        <v>0.8612978036093458</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1879361386460389</v>
+        <v>0.8612978036811096</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1879361386457445</v>
+        <v>0.8612978035198856</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1879361386471287</v>
+        <v>0.861297803437822</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1879361386471801</v>
+        <v>0.8612978037296418</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1879361386473529</v>
+        <v>0.8612978036826041</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1879361386478235</v>
+        <v>0.8612978034925923</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1879361386479585</v>
+        <v>0.8612978037082832</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1879361386459049</v>
+        <v>0.861297803649523</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1879361386450258</v>
+        <v>0.86129780392199</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1879361386455087</v>
+        <v>0.8612978040315523</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1879361386453151</v>
+        <v>0.8612978041874071</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1879361386450407</v>
+        <v>0.861297804265226</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1879361386469389</v>
+        <v>0.8612978040550449</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1879361386462665</v>
+        <v>0.8612978039385869</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187936138646492</v>
+        <v>0.861297803952581</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1879361386459344</v>
+        <v>0.8612978038371361</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1879361386464747</v>
+        <v>0.8612978038985331</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1879361386454114</v>
+        <v>0.8612978037450593</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1879361386461667</v>
+        <v>0.8612978038462978</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1879361386445642</v>
+        <v>0.8612978036963582</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1879361386467642</v>
+        <v>0.8612978039664337</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1879361386453178</v>
+        <v>0.8612978038534089</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1879361386462396</v>
+        <v>0.8612978038616326</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1879361386463671</v>
+        <v>0.8612978036113769</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1879361386468518</v>
+        <v>0.8612978033567847</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1879361386442195</v>
+        <v>0.8612978031795895</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1879361386464176</v>
+        <v>0.8612978031781107</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.187936138645867</v>
+        <v>0.8612978032556039</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1879361386459783</v>
+        <v>0.8612978032802059</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1879361386456759</v>
+        <v>0.8612978031149173</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1879361386460312</v>
+        <v>0.8612978033473896</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1879361386451743</v>
+        <v>0.8612978034207914</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1879361386468223</v>
+        <v>0.8612978036056842</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1879361386472287</v>
+        <v>0.8612978036003498</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1879361386485812</v>
+        <v>0.8612978035975276</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1879361386469028</v>
+        <v>0.8612978035705936</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1879361386481612</v>
+        <v>0.8612978034642139</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1879361386473195</v>
+        <v>0.8612978035886901</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1879361386481321</v>
+        <v>0.8612978035119866</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.187936138647518</v>
+        <v>0.8612978034801463</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1879361386455299</v>
+        <v>0.861297803763116</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1879361386461822</v>
+        <v>0.8612978037635364</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1879361386463823</v>
+        <v>0.8612978038132562</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1879361386454207</v>
+        <v>0.8612978038642802</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1879361386470909</v>
+        <v>0.8612978038792879</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187936138647305</v>
+        <v>0.8612978036573274</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1879361386477463</v>
+        <v>0.861297803686629</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1879361386472025</v>
+        <v>0.8612978035098634</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1879361386478171</v>
+        <v>0.8612978031402903</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1879361386486783</v>
+        <v>0.8612978032754286</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1879361386478219</v>
+        <v>0.8612978033346544</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1879361386452823</v>
+        <v>0.8612978031583877</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.187936138644561</v>
+        <v>0.861297803246779</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1879361386457201</v>
+        <v>0.8612978032897115</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1879361386447376</v>
+        <v>0.8612978034445298</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1879361386445566</v>
+        <v>0.8612978035150224</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1879361386462559</v>
+        <v>0.8612978034551789</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1879361386483686</v>
+        <v>0.8612978034947776</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1879361386485408</v>
+        <v>0.8612978035222377</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1879361386486627</v>
+        <v>0.8612978032667058</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1879361386475892</v>
+        <v>0.8612978034035967</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1879361386484686</v>
+        <v>0.8612978032983587</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1879361386477017</v>
+        <v>0.8612978033900949</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1879361386466554</v>
+        <v>0.8612978031508376</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1879361386465743</v>
+        <v>0.8612978030059256</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1879361386455414</v>
+        <v>0.8612978030783651</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1879361386440514</v>
+        <v>0.8612978031291035</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1879361386455019</v>
+        <v>0.8612978031092873</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1879361386450062</v>
+        <v>0.8612978029086836</v>
       </c>
     </row>
   </sheetData>
